--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\4. Work\$. FBS\Automation\UIPath_REF_Future\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B61FE51-1AEA-49DB-A181-04831E25F1C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7C608-BE3E-4F38-B115-A25050DC0E3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="-13860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>logF_BusinessProcessName</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>File path to QuickBooksPro Desktop application</t>
+  </si>
+  <si>
+    <t>UIPath_REF_Future</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -567,25 +567,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="30">
@@ -593,32 +593,32 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1721,7 +1721,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1732,7 +1732,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1743,7 +1743,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
